--- a/data/trans_bre/P7A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>14,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,52%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 5,02</t>
+          <t>-10,8; 9,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 5,96</t>
+          <t>-8,89; 11,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 11,0</t>
+          <t>-7,29; 13,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 17,39</t>
+          <t>-3,51; 17,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 14,6</t>
+          <t>3,18; 28,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 18,71</t>
+          <t>-27,62; 33,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 36,76</t>
+          <t>-24,05; 47,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 57,37</t>
+          <t>-20,01; 56,4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; 81,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 110,07</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,12%</t>
+          <t>-12,3</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>-21,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-25,98%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-10,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-30,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 7,36</t>
+          <t>-17,21; 3,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 7,07</t>
+          <t>-17,0; 3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 5,61</t>
+          <t>-18,04; 2,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 8,72</t>
+          <t>-13,21; 6,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 27,69</t>
+          <t>-25,1; 2,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 27,56</t>
+          <t>-49,07; 13,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 22,13</t>
+          <t>-47,92; 15,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 35,89</t>
+          <t>-51,17; 11,33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-41,43; 31,7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-53,64; 9,93</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,59%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 20,19</t>
+          <t>-18,24; 33,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 21,05</t>
+          <t>-16,07; 36,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 19,01</t>
+          <t>-19,7; 31,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 18,99</t>
+          <t>-19,83; 31,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 78,72</t>
+          <t>-26,48; 31,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 86,4</t>
+          <t>-40,73; 257,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 75,63</t>
+          <t>-39,29; 274,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,96; 77,24</t>
+          <t>-45,79; 223,44</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-46,51; 257,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-51,17; 173,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>-1,97%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,84</t>
+          <t>-9,59; 5,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,4</t>
+          <t>-8,45; 5,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,66</t>
+          <t>-7,45; 6,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 10,4</t>
+          <t>-4,12; 9,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 11,86</t>
+          <t>-6,47; 11,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 14,84</t>
+          <t>-26,87; 19,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 22,3</t>
+          <t>-23,87; 21,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 36,2</t>
+          <t>-22,85; 25,88</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; 42,72</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 36,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P7A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,84</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,14</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,24%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,85%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>25,2%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>40,57%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.415114246247178</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2621535743766001</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.092565132471031</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.296024739060025</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>14.61047264509652</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.01239700335596823</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.008258405857733384</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1051485341111183</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2292911185541218</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4285570691959005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,8; 9,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,89; 11,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 13,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 17,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 28,18</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-27,62; 33,05</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-24,05; 47,6</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-20,01; 56,4</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-10,67; 81,21</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 110,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.80245159723018</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.15471976516919</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.728679128769151</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.557639945641379</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>3.221839002155528</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2761826982620625</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2923435018052019</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2264730153170141</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1352195209402427</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.08222125884238833</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.323510926889272</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.766926202256053</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.31812120522913</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>16.40324014688268</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>28.88404208395844</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3305315387807624</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.3877128430602147</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5458945038464899</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7780394574168623</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.134278253536902</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,55</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,2</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-7,46</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-12,3</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-22,75%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-21,09%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-25,98%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-10,57%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-30,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,21; 3,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 3,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,04; 2,73</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,21; 6,9</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-25,1; 2,8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-49,07; 13,91</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-47,92; 15,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-51,17; 11,33</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-41,43; 31,7</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-53,64; 9,93</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.548450228260672</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.376866716874544</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.376013273937433</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.478666696635106</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-12.67036785467175</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2274698366703971</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1624891320208535</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.201043863381573</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.0590358792958287</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.3210744961075216</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,69</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>26,53%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>30,4%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,27%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,59%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.2108938684771</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.14954399747048</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.75410369876499</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-12.01747239880869</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-24.89869238542767</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4907464044209578</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4602348508209223</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4822745402086193</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3914047141506604</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.560138286323867</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,24; 33,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,07; 36,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,7; 31,07</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,83; 31,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-26,48; 31,6</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-40,73; 257,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-39,29; 274,83</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-45,79; 223,44</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-46,51; 257,52</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-51,17; 173,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.003519245410781</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.16681061480463</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.723168605932496</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.718425566932321</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.100473040465859</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1391222852787517</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2522663818835203</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.212635530094688</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.4217524935497816</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.04563560631620705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,55%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,79%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-1,97%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>10,56%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.742558352871093</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.014704173805547</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.558290085048744</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.302697511516817</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.521226580277101</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.265254382235412</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2449587323865816</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.15532866645944</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1176899093724911</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.01544362712219721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 5,17</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 5,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 6,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 9,66</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 11,57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-26,87; 19,1</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,87; 21,6</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-22,85; 25,88</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-13,65; 42,72</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; 36,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.24186458626807</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.94723670759879</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-20.11901228712749</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-21.4040498226281</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-25.78680590129458</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4073177072667471</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4268991177568154</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4758172079416652</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5028114453374681</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5263139212418287</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>33.90777080177764</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>34.53401195965267</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>30.84037251153691</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>29.08460307937083</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>31.17255928047982</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.571583700349282</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.747862701189559</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.088735565433228</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.279368816597642</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.845835584350781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.038095544044594</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.067464976086641</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.002044226097824842</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.903700666868253</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.360283970029603</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.06551747496219046</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.03630429754425902</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-7.23385363931587e-05</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1095541160567945</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.0652191743311559</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.585093125681469</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.649964901549845</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.688955033014767</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.942384242034973</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.795569536914668</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2687245893133831</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2470958057299873</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.207239149970951</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1324916957676793</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1659709511490292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.171102272366161</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.754796901797072</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.272268928555812</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.17557330621347</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>11.58863629042189</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1909739367126218</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2300602105658735</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3081014003165862</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4483294759345226</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3743240810511081</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
